--- a/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{440229DE-ABF9-4C00-AEF9-C0166965921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03A98802-5F7C-46D4-A72B-46FFFBDBCD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96A67575-42D4-408E-B38C-C388BAABB6AC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34453AB6-39D1-49A2-82CF-D6C889032803}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="316">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -83,883 +83,904 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>27,41%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C58F72-73BF-4696-BC6D-3644D87D6112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03A348F-2854-4259-8A40-5A38F790BCAA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1755,13 +1776,13 @@
         <v>77875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -1770,13 +1791,13 @@
         <v>74364</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>157</v>
@@ -1785,13 +1806,13 @@
         <v>152239</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1827,13 @@
         <v>3405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1821,13 +1842,13 @@
         <v>8573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -1836,13 +1857,13 @@
         <v>11977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1878,13 @@
         <v>147977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>190</v>
@@ -1872,13 +1893,13 @@
         <v>136280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
@@ -1887,13 +1908,13 @@
         <v>284257</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,13 +1929,13 @@
         <v>290040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -1923,13 +1944,13 @@
         <v>334725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
@@ -1938,13 +1959,13 @@
         <v>624766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,7 +2021,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2018,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2027,13 +2048,13 @@
         <v>683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2042,13 +2063,13 @@
         <v>683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2078,13 +2099,13 @@
         <v>1412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2093,13 +2114,13 @@
         <v>1412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2135,13 @@
         <v>88531</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -2129,13 +2150,13 @@
         <v>83388</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
@@ -2144,13 +2165,13 @@
         <v>171919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2186,13 @@
         <v>233709</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>390</v>
@@ -2180,13 +2201,13 @@
         <v>287360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>633</v>
@@ -2195,13 +2216,13 @@
         <v>521069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,7 +2278,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2269,13 +2290,13 @@
         <v>2752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2284,13 +2305,13 @@
         <v>5475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2299,13 +2320,13 @@
         <v>8227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2341,13 @@
         <v>1935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2335,13 +2356,13 @@
         <v>2375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2350,13 +2371,13 @@
         <v>4310</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2392,13 @@
         <v>71490</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -2386,13 +2407,13 @@
         <v>100622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>224</v>
@@ -2401,13 +2422,13 @@
         <v>172113</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2443,13 @@
         <v>246062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>445</v>
@@ -2437,13 +2458,13 @@
         <v>320084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>654</v>
@@ -2452,13 +2473,13 @@
         <v>566146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2535,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2526,13 +2547,13 @@
         <v>20871</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2541,13 +2562,13 @@
         <v>20355</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -2556,13 +2577,13 @@
         <v>41226</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2598,13 @@
         <v>13745</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2592,13 +2613,13 @@
         <v>8863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2607,13 +2628,13 @@
         <v>22608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2649,13 @@
         <v>29259</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -2643,13 +2664,13 @@
         <v>38247</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -2658,13 +2679,13 @@
         <v>67507</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2700,13 @@
         <v>132873</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H27" s="7">
         <v>345</v>
@@ -2694,13 +2715,13 @@
         <v>164030</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M27" s="7">
         <v>535</v>
@@ -2709,13 +2730,13 @@
         <v>296904</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2792,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2783,13 +2804,13 @@
         <v>4728</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2798,13 +2819,13 @@
         <v>159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2813,13 +2834,13 @@
         <v>4887</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2855,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2870,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2906,13 @@
         <v>76195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H31" s="7">
         <v>140</v>
@@ -2900,13 +2921,13 @@
         <v>70044</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M31" s="7">
         <v>264</v>
@@ -2915,13 +2936,13 @@
         <v>146238</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2957,13 @@
         <v>196301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
@@ -2951,13 +2972,13 @@
         <v>205419</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
@@ -2966,13 +2987,13 @@
         <v>401719</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,7 +3049,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3040,13 +3061,13 @@
         <v>9158</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3055,13 +3076,13 @@
         <v>4316</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -3070,13 +3091,13 @@
         <v>13473</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3112,13 @@
         <v>9604</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3106,13 +3127,13 @@
         <v>7203</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -3121,13 +3142,13 @@
         <v>16807</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3163,13 @@
         <v>120930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>245</v>
@@ -3157,13 +3178,13 @@
         <v>162293</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
@@ -3172,13 +3193,13 @@
         <v>283223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3214,13 @@
         <v>488063</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>702</v>
@@ -3208,13 +3229,13 @@
         <v>630391</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>1154</v>
@@ -3223,13 +3244,13 @@
         <v>1118454</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3306,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3297,13 +3318,13 @@
         <v>171961</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H39" s="7">
         <v>194</v>
@@ -3312,13 +3333,13 @@
         <v>161084</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M39" s="7">
         <v>366</v>
@@ -3327,13 +3348,13 @@
         <v>333045</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3369,13 @@
         <v>69052</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>112</v>
@@ -3363,13 +3384,13 @@
         <v>88592</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
@@ -3378,13 +3399,13 @@
         <v>157644</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3420,13 @@
         <v>294001</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>418</v>
@@ -3414,13 +3435,13 @@
         <v>324181</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M41" s="7">
         <v>668</v>
@@ -3429,13 +3450,13 @@
         <v>618182</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3471,13 @@
         <v>324413</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>338</v>
@@ -3465,13 +3486,13 @@
         <v>294578</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>610</v>
@@ -3480,13 +3501,13 @@
         <v>618991</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3575,13 @@
         <v>287344</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H44" s="7">
         <v>342</v>
@@ -3569,13 +3590,13 @@
         <v>267309</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>608</v>
@@ -3584,13 +3605,13 @@
         <v>554653</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3626,13 @@
         <v>98614</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H45" s="7">
         <v>159</v>
@@ -3620,13 +3641,13 @@
         <v>117410</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M45" s="7">
         <v>260</v>
@@ -3635,13 +3656,13 @@
         <v>216024</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3677,13 @@
         <v>878432</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H46" s="7">
         <v>1476</v>
@@ -3671,13 +3692,13 @@
         <v>962381</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>2410</v>
@@ -3686,13 +3707,13 @@
         <v>1840813</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3728,13 @@
         <v>2120838</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>3384</v>
@@ -3722,28 +3743,28 @@
         <v>2459398</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M47" s="7">
         <v>5459</v>
       </c>
       <c r="N47" s="7">
-        <v>4580237</v>
+        <v>4580236</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,7 +3806,7 @@
         <v>8737</v>
       </c>
       <c r="N48" s="7">
-        <v>7191727</v>
+        <v>7191726</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>45</v>
@@ -3799,7 +3820,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03A98802-5F7C-46D4-A72B-46FFFBDBCD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{818E7FC3-C3E2-4A28-8270-28E33F22DDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34453AB6-39D1-49A2-82CF-D6C889032803}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{475FB5E5-3842-4E52-97DD-7BB61D5361FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03A348F-2854-4259-8A40-5A38F790BCAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F601B41A-129C-4A80-A1A7-CAF37DE0D50B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{818E7FC3-C3E2-4A28-8270-28E33F22DDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88893E6D-C980-4AC3-AA00-B632B22B54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{475FB5E5-3842-4E52-97DD-7BB61D5361FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8DA2F6C-F6CF-407F-8F6D-A4AACBC3C765}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="309">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
@@ -98,19 +98,19 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>Sí, mi médico/a</t>
@@ -119,28 +119,28 @@
     <t>19,23%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -149,28 +149,28 @@
     <t>80,44%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,31 +179,28 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -212,61 +209,61 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>55,85%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
   </si>
   <si>
     <t>60,43%</t>
@@ -275,16 +272,16 @@
     <t>56,69%</t>
   </si>
   <si>
-    <t>64,29%</t>
+    <t>64,52%</t>
   </si>
   <si>
     <t>58,21%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -293,694 +290,676 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>8,44%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>27,41%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1395,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F601B41A-129C-4A80-A1A7-CAF37DE0D50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB10B71-2F2E-4BA0-A7D0-22F83D0F5CD5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1776,13 +1755,13 @@
         <v>77875</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -1791,13 +1770,13 @@
         <v>74364</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>157</v>
@@ -1806,13 +1785,13 @@
         <v>152239</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1806,13 @@
         <v>3405</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1842,13 +1821,13 @@
         <v>8573</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -1857,13 +1836,13 @@
         <v>11977</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1857,13 @@
         <v>147977</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>190</v>
@@ -1893,13 +1872,13 @@
         <v>136280</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
@@ -1908,13 +1887,13 @@
         <v>284257</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1908,13 @@
         <v>290040</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -1944,13 +1923,13 @@
         <v>334725</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
@@ -1959,13 +1938,13 @@
         <v>624766</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,7 +2000,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2039,7 +2018,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2048,13 +2027,13 @@
         <v>683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2063,13 +2042,13 @@
         <v>683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2099,13 +2078,13 @@
         <v>1412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2114,13 +2093,13 @@
         <v>1412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2114,13 @@
         <v>88531</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -2150,13 +2129,13 @@
         <v>83388</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
@@ -2165,13 +2144,13 @@
         <v>171919</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2165,13 @@
         <v>233709</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>390</v>
@@ -2201,13 +2180,13 @@
         <v>287360</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>633</v>
@@ -2216,13 +2195,13 @@
         <v>521069</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2257,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2269,13 @@
         <v>2752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2305,13 +2284,13 @@
         <v>5475</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2320,13 +2299,13 @@
         <v>8227</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2320,13 @@
         <v>1935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2356,13 +2335,13 @@
         <v>2375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2371,13 +2350,13 @@
         <v>4310</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2371,13 @@
         <v>71490</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -2407,13 +2386,13 @@
         <v>100622</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>224</v>
@@ -2422,13 +2401,13 @@
         <v>172113</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2422,13 @@
         <v>246062</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>445</v>
@@ -2458,13 +2437,13 @@
         <v>320084</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>654</v>
@@ -2473,13 +2452,13 @@
         <v>566146</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,7 +2514,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2547,13 +2526,13 @@
         <v>20871</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2562,13 +2541,13 @@
         <v>20355</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -2577,13 +2556,13 @@
         <v>41226</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2577,13 @@
         <v>13745</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2613,13 +2592,13 @@
         <v>8863</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2628,13 +2607,13 @@
         <v>22608</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2628,13 @@
         <v>29259</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -2664,13 +2643,13 @@
         <v>38247</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -2679,13 +2658,13 @@
         <v>67507</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2679,13 @@
         <v>132873</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H27" s="7">
         <v>345</v>
@@ -2715,13 +2694,13 @@
         <v>164030</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M27" s="7">
         <v>535</v>
@@ -2730,13 +2709,13 @@
         <v>296904</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2771,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2804,13 +2783,13 @@
         <v>4728</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2819,13 +2798,13 @@
         <v>159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2834,13 +2813,13 @@
         <v>4887</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2876,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2891,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2885,13 @@
         <v>76195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H31" s="7">
         <v>140</v>
@@ -2921,13 +2900,13 @@
         <v>70044</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M31" s="7">
         <v>264</v>
@@ -2936,13 +2915,13 @@
         <v>146238</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2936,13 @@
         <v>196301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
@@ -2972,13 +2951,13 @@
         <v>205419</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
@@ -2987,13 +2966,13 @@
         <v>401719</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3028,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3061,13 +3040,13 @@
         <v>9158</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3076,13 +3055,13 @@
         <v>4316</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -3091,13 +3070,13 @@
         <v>13473</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3091,13 @@
         <v>9604</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3127,13 +3106,13 @@
         <v>7203</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -3142,13 +3121,13 @@
         <v>16807</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3142,13 @@
         <v>120930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>245</v>
@@ -3178,13 +3157,13 @@
         <v>162293</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
@@ -3193,13 +3172,13 @@
         <v>283223</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3193,13 @@
         <v>488063</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7">
         <v>702</v>
@@ -3229,13 +3208,13 @@
         <v>630391</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
         <v>1154</v>
@@ -3244,13 +3223,13 @@
         <v>1118454</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3285,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3297,13 @@
         <v>171961</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H39" s="7">
         <v>194</v>
@@ -3333,13 +3312,13 @@
         <v>161084</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M39" s="7">
         <v>366</v>
@@ -3348,13 +3327,13 @@
         <v>333045</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3348,13 @@
         <v>69052</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H40" s="7">
         <v>112</v>
@@ -3384,13 +3363,13 @@
         <v>88592</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
@@ -3399,13 +3378,13 @@
         <v>157644</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3399,13 @@
         <v>294001</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>418</v>
@@ -3435,13 +3414,13 @@
         <v>324181</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M41" s="7">
         <v>668</v>
@@ -3450,13 +3429,13 @@
         <v>618182</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3450,13 @@
         <v>324413</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7">
         <v>338</v>
@@ -3486,13 +3465,13 @@
         <v>294578</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>610</v>
@@ -3501,13 +3480,13 @@
         <v>618991</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3554,13 @@
         <v>287344</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H44" s="7">
         <v>342</v>
@@ -3590,13 +3569,13 @@
         <v>267309</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M44" s="7">
         <v>608</v>
@@ -3605,13 +3584,13 @@
         <v>554653</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3605,13 @@
         <v>98614</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H45" s="7">
         <v>159</v>
@@ -3641,13 +3620,13 @@
         <v>117410</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M45" s="7">
         <v>260</v>
@@ -3656,13 +3635,13 @@
         <v>216024</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3656,13 @@
         <v>878432</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H46" s="7">
         <v>1476</v>
@@ -3692,13 +3671,13 @@
         <v>962381</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M46" s="7">
         <v>2410</v>
@@ -3707,13 +3686,13 @@
         <v>1840813</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3707,13 @@
         <v>2120838</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H47" s="7">
         <v>3384</v>
@@ -3743,28 +3722,28 @@
         <v>2459398</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M47" s="7">
         <v>5459</v>
       </c>
       <c r="N47" s="7">
-        <v>4580236</v>
+        <v>4580237</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3785,7 @@
         <v>8737</v>
       </c>
       <c r="N48" s="7">
-        <v>7191726</v>
+        <v>7191727</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>45</v>
@@ -3820,7 +3799,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88893E6D-C980-4AC3-AA00-B632B22B54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB61CDE-A3BA-435A-A7B9-E3DAF37142C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8DA2F6C-F6CF-407F-8F6D-A4AACBC3C765}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{776BA7A2-1CA0-474E-ADFB-874AD6DA7BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="314">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -80,886 +80,901 @@
     <t>0,58%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
   </si>
   <si>
     <t>23,65%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB10B71-2F2E-4BA0-A7D0-22F83D0F5CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6450606-8810-4615-AB8A-D24B433D0D3E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1510,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1525,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1546,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>874</v>
+        <v>1025</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1561,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1576,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1266</v>
+        <v>1429</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1597,7 +1612,7 @@
         <v>71</v>
       </c>
       <c r="D6" s="7">
-        <v>50048</v>
+        <v>55713</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1612,7 +1627,7 @@
         <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>47325</v>
+        <v>49035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>29</v>
@@ -1627,7 +1642,7 @@
         <v>173</v>
       </c>
       <c r="N6" s="7">
-        <v>97373</v>
+        <v>104748</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>32</v>
@@ -1648,7 +1663,7 @@
         <v>259</v>
       </c>
       <c r="D7" s="7">
-        <v>209376</v>
+        <v>254705</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1663,7 +1678,7 @@
         <v>433</v>
       </c>
       <c r="I7" s="7">
-        <v>222812</v>
+        <v>239308</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -1678,7 +1693,7 @@
         <v>692</v>
       </c>
       <c r="N7" s="7">
-        <v>432187</v>
+        <v>494012</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>42</v>
@@ -1699,7 +1714,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -1714,7 +1729,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1729,7 +1744,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1752,46 +1767,46 @@
         <v>54</v>
       </c>
       <c r="D9" s="7">
-        <v>77875</v>
+        <v>78062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>74364</v>
+        <v>69367</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>157</v>
       </c>
       <c r="N9" s="7">
-        <v>152239</v>
+        <v>147429</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,46 +1818,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3405</v>
+        <v>3190</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>8573</v>
+        <v>8014</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>11977</v>
+        <v>11204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,46 +1869,46 @@
         <v>118</v>
       </c>
       <c r="D11" s="7">
-        <v>147977</v>
+        <v>146662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>136280</v>
+        <v>126777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
       </c>
       <c r="N11" s="7">
-        <v>284257</v>
+        <v>273439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,46 +1920,46 @@
         <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>290040</v>
+        <v>290477</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>334725</v>
+        <v>310244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
       </c>
       <c r="N12" s="7">
-        <v>624766</v>
+        <v>600721</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1971,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -1971,7 +1986,7 @@
         <v>716</v>
       </c>
       <c r="I13" s="7">
-        <v>553942</v>
+        <v>514403</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
@@ -1986,7 +2001,7 @@
         <v>1098</v>
       </c>
       <c r="N13" s="7">
-        <v>1073239</v>
+        <v>1032793</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>45</v>
@@ -2000,7 +2015,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2018,37 +2033,37 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,37 +2084,37 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1412</v>
+        <v>1319</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>1412</v>
+        <v>1319</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,46 +2126,46 @@
         <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>88531</v>
+        <v>85024</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
       </c>
       <c r="I16" s="7">
-        <v>83388</v>
+        <v>77492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
       </c>
       <c r="N16" s="7">
-        <v>171919</v>
+        <v>162516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,46 +2177,46 @@
         <v>243</v>
       </c>
       <c r="D17" s="7">
-        <v>233709</v>
+        <v>231026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>390</v>
       </c>
       <c r="I17" s="7">
-        <v>287360</v>
+        <v>269275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>633</v>
       </c>
       <c r="N17" s="7">
-        <v>521069</v>
+        <v>500302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,7 +2228,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>45</v>
@@ -2228,7 +2243,7 @@
         <v>535</v>
       </c>
       <c r="I18" s="7">
-        <v>372843</v>
+        <v>348723</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>45</v>
@@ -2243,7 +2258,7 @@
         <v>895</v>
       </c>
       <c r="N18" s="7">
-        <v>695083</v>
+        <v>664774</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>45</v>
@@ -2257,7 +2272,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2266,46 +2281,46 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2752</v>
+        <v>2631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>5475</v>
+        <v>4928</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>8227</v>
+        <v>7560</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1935</v>
+        <v>1716</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>118</v>
@@ -2332,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>2375</v>
+        <v>2231</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>121</v>
@@ -2347,13 +2362,13 @@
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>4310</v>
+        <v>3947</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>123</v>
@@ -2368,7 +2383,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="7">
-        <v>71490</v>
+        <v>68442</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>124</v>
@@ -2383,7 +2398,7 @@
         <v>145</v>
       </c>
       <c r="I21" s="7">
-        <v>100622</v>
+        <v>92008</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>127</v>
@@ -2398,7 +2413,7 @@
         <v>224</v>
       </c>
       <c r="N21" s="7">
-        <v>172113</v>
+        <v>160449</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>130</v>
@@ -2419,7 +2434,7 @@
         <v>209</v>
       </c>
       <c r="D22" s="7">
-        <v>246062</v>
+        <v>239768</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>133</v>
@@ -2434,7 +2449,7 @@
         <v>445</v>
       </c>
       <c r="I22" s="7">
-        <v>320084</v>
+        <v>376551</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>136</v>
@@ -2449,7 +2464,7 @@
         <v>654</v>
       </c>
       <c r="N22" s="7">
-        <v>566146</v>
+        <v>616317</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>139</v>
@@ -2470,7 +2485,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>45</v>
@@ -2485,7 +2500,7 @@
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>45</v>
@@ -2500,7 +2515,7 @@
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>45</v>
@@ -2523,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>20871</v>
+        <v>18758</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>143</v>
@@ -2538,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="I24" s="7">
-        <v>20355</v>
+        <v>17471</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>146</v>
@@ -2553,7 +2568,7 @@
         <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>41226</v>
+        <v>36229</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>149</v>
@@ -2574,7 +2589,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>13745</v>
+        <v>12476</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>152</v>
@@ -2589,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>8863</v>
+        <v>7941</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>155</v>
@@ -2604,7 +2619,7 @@
         <v>39</v>
       </c>
       <c r="N25" s="7">
-        <v>22608</v>
+        <v>20417</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>158</v>
@@ -2625,7 +2640,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>29259</v>
+        <v>26710</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>161</v>
@@ -2640,7 +2655,7 @@
         <v>94</v>
       </c>
       <c r="I26" s="7">
-        <v>38247</v>
+        <v>34952</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>164</v>
@@ -2655,16 +2670,16 @@
         <v>139</v>
       </c>
       <c r="N26" s="7">
-        <v>67507</v>
+        <v>61662</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,46 +2691,46 @@
         <v>190</v>
       </c>
       <c r="D27" s="7">
-        <v>132873</v>
+        <v>120797</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H27" s="7">
         <v>345</v>
       </c>
       <c r="I27" s="7">
-        <v>164030</v>
+        <v>147911</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" s="7">
         <v>535</v>
       </c>
       <c r="N27" s="7">
-        <v>296904</v>
+        <v>268708</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,7 +2742,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>45</v>
@@ -2742,7 +2757,7 @@
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>45</v>
@@ -2757,7 +2772,7 @@
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>45</v>
@@ -2771,7 +2786,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2780,46 +2795,46 @@
         <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>4728</v>
+        <v>4496</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>4887</v>
+        <v>4657</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2855,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2870,7 +2885,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,46 +2897,46 @@
         <v>124</v>
       </c>
       <c r="D31" s="7">
-        <v>76195</v>
+        <v>72964</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="H31" s="7">
         <v>140</v>
       </c>
       <c r="I31" s="7">
-        <v>70044</v>
+        <v>65248</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>264</v>
       </c>
       <c r="N31" s="7">
-        <v>146238</v>
+        <v>138212</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,46 +2948,46 @@
         <v>243</v>
       </c>
       <c r="D32" s="7">
-        <v>196301</v>
+        <v>192176</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>319</v>
       </c>
       <c r="I32" s="7">
-        <v>205419</v>
+        <v>191647</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
       </c>
       <c r="N32" s="7">
-        <v>401719</v>
+        <v>383823</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,7 +2999,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>45</v>
@@ -2999,7 +3014,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>45</v>
@@ -3014,7 +3029,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>45</v>
@@ -3028,7 +3043,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3037,46 +3052,46 @@
         <v>9</v>
       </c>
       <c r="D34" s="7">
-        <v>9158</v>
+        <v>9084</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>4316</v>
+        <v>3740</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
       </c>
       <c r="N34" s="7">
-        <v>13473</v>
+        <v>12824</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,46 +3103,46 @@
         <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>9604</v>
+        <v>9242</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
       </c>
       <c r="I35" s="7">
-        <v>7203</v>
+        <v>6713</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
       </c>
       <c r="N35" s="7">
-        <v>16807</v>
+        <v>15955</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,46 +3154,46 @@
         <v>130</v>
       </c>
       <c r="D36" s="7">
-        <v>120930</v>
+        <v>116582</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>245</v>
       </c>
       <c r="I36" s="7">
-        <v>162293</v>
+        <v>150952</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
       </c>
       <c r="N36" s="7">
-        <v>283223</v>
+        <v>267535</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,46 +3205,46 @@
         <v>452</v>
       </c>
       <c r="D37" s="7">
-        <v>488063</v>
+        <v>489371</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H37" s="7">
         <v>702</v>
       </c>
       <c r="I37" s="7">
-        <v>630391</v>
+        <v>687860</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>1154</v>
       </c>
       <c r="N37" s="7">
-        <v>1118454</v>
+        <v>1177231</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3256,7 @@
         <v>599</v>
       </c>
       <c r="D38" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>45</v>
@@ -3256,7 +3271,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>45</v>
@@ -3271,7 +3286,7 @@
         <v>1559</v>
       </c>
       <c r="N38" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>45</v>
@@ -3285,7 +3300,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3294,46 +3309,46 @@
         <v>172</v>
       </c>
       <c r="D39" s="7">
-        <v>171961</v>
+        <v>145972</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H39" s="7">
         <v>194</v>
       </c>
       <c r="I39" s="7">
-        <v>161084</v>
+        <v>131997</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M39" s="7">
         <v>366</v>
       </c>
       <c r="N39" s="7">
-        <v>333045</v>
+        <v>277970</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,46 +3360,46 @@
         <v>68</v>
       </c>
       <c r="D40" s="7">
-        <v>69052</v>
+        <v>58728</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H40" s="7">
         <v>112</v>
       </c>
       <c r="I40" s="7">
-        <v>88592</v>
+        <v>74065</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>180</v>
       </c>
       <c r="N40" s="7">
-        <v>157644</v>
+        <v>132793</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,46 +3411,46 @@
         <v>250</v>
       </c>
       <c r="D41" s="7">
-        <v>294001</v>
+        <v>451140</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
         <v>418</v>
       </c>
       <c r="I41" s="7">
-        <v>324181</v>
+        <v>269275</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>668</v>
       </c>
       <c r="N41" s="7">
-        <v>618182</v>
+        <v>720416</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,46 +3462,46 @@
         <v>272</v>
       </c>
       <c r="D42" s="7">
-        <v>324413</v>
+        <v>272880</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>338</v>
       </c>
       <c r="I42" s="7">
-        <v>294578</v>
+        <v>242394</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M42" s="7">
         <v>610</v>
       </c>
       <c r="N42" s="7">
-        <v>618991</v>
+        <v>515274</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3513,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>45</v>
@@ -3513,7 +3528,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>45</v>
@@ -3528,7 +3543,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>45</v>
@@ -3551,46 +3566,46 @@
         <v>266</v>
       </c>
       <c r="D44" s="7">
-        <v>287344</v>
+        <v>259003</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>342</v>
       </c>
       <c r="I44" s="7">
-        <v>267309</v>
+        <v>229188</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M44" s="7">
         <v>608</v>
       </c>
       <c r="N44" s="7">
-        <v>554653</v>
+        <v>488192</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,46 +3617,46 @@
         <v>101</v>
       </c>
       <c r="D45" s="7">
-        <v>98614</v>
+        <v>86377</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H45" s="7">
         <v>159</v>
       </c>
       <c r="I45" s="7">
-        <v>117410</v>
+        <v>100687</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M45" s="7">
         <v>260</v>
       </c>
       <c r="N45" s="7">
-        <v>216024</v>
+        <v>187064</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,46 +3668,46 @@
         <v>934</v>
       </c>
       <c r="D46" s="7">
-        <v>878432</v>
+        <v>1023237</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H46" s="7">
         <v>1476</v>
       </c>
       <c r="I46" s="7">
-        <v>962381</v>
+        <v>865740</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M46" s="7">
         <v>2410</v>
       </c>
       <c r="N46" s="7">
-        <v>1840813</v>
+        <v>1888977</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,46 +3719,46 @@
         <v>2075</v>
       </c>
       <c r="D47" s="7">
-        <v>2120838</v>
+        <v>2091200</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H47" s="7">
         <v>3384</v>
       </c>
       <c r="I47" s="7">
-        <v>2459398</v>
+        <v>2465189</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M47" s="7">
         <v>5459</v>
       </c>
       <c r="N47" s="7">
-        <v>4580237</v>
+        <v>4556388</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3770,7 @@
         <v>3376</v>
       </c>
       <c r="D48" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>45</v>
@@ -3770,7 +3785,7 @@
         <v>5361</v>
       </c>
       <c r="I48" s="7">
-        <v>3806498</v>
+        <v>3660804</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>45</v>
@@ -3785,7 +3800,7 @@
         <v>8737</v>
       </c>
       <c r="N48" s="7">
-        <v>7191727</v>
+        <v>7120621</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>45</v>
@@ -3799,7 +3814,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
